--- a/excel/state_spaces/q learning 14 rooms.xlsx
+++ b/excel/state_spaces/q learning 14 rooms.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mehg_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mehg_000\Documents\git_workspace\Marble_finding_robot\excel\state_spaces\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
   <si>
     <t>Rewards</t>
   </si>
@@ -99,6 +99,9 @@
   <si>
     <t>skalering afstand</t>
   </si>
+  <si>
+    <t>8 rooms</t>
+  </si>
 </sst>
 </file>
 
@@ -150,24 +153,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+  <dxfs count="181">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -193,51 +186,51 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -303,16 +296,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -353,6 +336,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -403,6 +406,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -443,6 +456,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -483,6 +516,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -523,6 +576,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -563,6 +636,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -603,6 +696,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -643,6 +756,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -683,6 +816,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -723,6 +876,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -763,6 +936,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -798,6 +991,976 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1079,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2129,26 +3292,26 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:T17">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="1" operator="greaterThan">
+      <formula>-50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="2" operator="greaterThan">
+      <formula>-5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="3" operator="equal">
+      <formula>-50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="7" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>-50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
-      <formula>-5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
-      <formula>-50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2158,10 +3321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2215,6 +3378,9 @@
       <c r="Q1" t="s">
         <v>20</v>
       </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -2246,7 +3412,7 @@
       </c>
       <c r="H2">
         <f>IF(Q8=1,'Ark1'!C8+'Ark1'!L3,'Ark1'!L3)</f>
-        <v>31.760825286280767</v>
+        <v>-2.34</v>
       </c>
       <c r="I2">
         <v>-100</v>
@@ -2287,7 +3453,7 @@
       </c>
       <c r="D3">
         <f>IF(Q4=1,'Ark1'!C4+'Ark1'!H4,'Ark1'!H4)</f>
-        <v>18.293781053697298</v>
+        <v>-2.78</v>
       </c>
       <c r="E3">
         <v>-100</v>
@@ -2349,7 +3515,7 @@
       </c>
       <c r="E4">
         <f>IF(Q5=1,'Ark1'!C5+'Ark1'!I5,'Ark1'!I5)</f>
-        <v>22.842978700557602</v>
+        <v>-4.32</v>
       </c>
       <c r="F4">
         <v>-100</v>
@@ -2359,7 +3525,7 @@
       </c>
       <c r="H4">
         <f>IF(Q8=1,'Ark1'!C8+'Ark1'!L5,'Ark1'!L5)</f>
-        <v>29.520825286280768</v>
+        <v>-4.58</v>
       </c>
       <c r="I4">
         <v>-100</v>
@@ -2386,10 +3552,10 @@
         <v>-100</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2404,7 +3570,7 @@
       </c>
       <c r="D5">
         <f>IF(Q4=1,'Ark1'!C4+'Ark1'!H6,'Ark1'!H6)</f>
-        <v>16.753781053697299</v>
+        <v>-4.32</v>
       </c>
       <c r="E5">
         <f>'Ark1'!I6</f>
@@ -2412,15 +3578,15 @@
       </c>
       <c r="F5">
         <f>IF(Q6=1,'Ark1'!C6+'Ark1'!J6,'Ark1'!J6)</f>
-        <v>16.820296826942993</v>
+        <v>-3.88</v>
       </c>
       <c r="G5">
         <f>IF(Q7=1,'Ark1'!C7+'Ark1'!K6,'Ark1'!K6)</f>
-        <v>36.485001725738044</v>
+        <v>-4.24</v>
       </c>
       <c r="H5">
         <f>IF(Q8=1,'Ark1'!C8+'Ark1'!L6,'Ark1'!L6)</f>
-        <v>30.640825286280766</v>
+        <v>-3.46</v>
       </c>
       <c r="I5">
         <v>-100</v>
@@ -2447,10 +3613,10 @@
         <v>-100</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2468,7 +3634,7 @@
       </c>
       <c r="E6">
         <f>IF(Q5=1,'Ark1'!C5+'Ark1'!I7,'Ark1'!I7)</f>
-        <v>23.282978700557603</v>
+        <v>-3.88</v>
       </c>
       <c r="F6">
         <f>'Ark1'!J7</f>
@@ -2505,10 +3671,10 @@
         <v>-100</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2526,7 +3692,7 @@
       </c>
       <c r="E7">
         <f>IF(Q5=1,'Ark1'!C5+'Ark1'!I8,'Ark1'!I8)</f>
-        <v>22.9229787005576</v>
+        <v>-4.24</v>
       </c>
       <c r="F7">
         <v>-100</v>
@@ -2563,10 +3729,10 @@
         <v>-100</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2582,11 +3748,11 @@
       </c>
       <c r="D8">
         <f>IF(Q4=1,'Ark1'!C4+'Ark1'!H9,'Ark1'!H9)</f>
-        <v>16.493781053697298</v>
+        <v>-4.58</v>
       </c>
       <c r="E8">
         <f>IF(Q5=1,'Ark1'!C5+'Ark1'!I9,'Ark1'!I9)</f>
-        <v>23.702978700557601</v>
+        <v>-3.46</v>
       </c>
       <c r="F8">
         <v>-100</v>
@@ -2605,7 +3771,7 @@
       </c>
       <c r="J8">
         <f>IF(Q10=1,'Ark1'!C10+'Ark1'!N9,'Ark1'!N9)</f>
-        <v>30.431184930088435</v>
+        <v>-3.76</v>
       </c>
       <c r="K8">
         <f>IF(Q11=1,'Ark1'!C11+'Ark1'!O9,'Ark1'!O9)</f>
@@ -2627,10 +3793,10 @@
         <v>-100</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2657,7 +3823,7 @@
       </c>
       <c r="H9">
         <f>IF(Q8=1,'Ark1'!C8+'Ark1'!L10,'Ark1'!L10)</f>
-        <v>27.560825286280767</v>
+        <v>-6.54</v>
       </c>
       <c r="I9">
         <f>'Ark1'!M10</f>
@@ -2688,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2715,7 +3881,7 @@
       </c>
       <c r="H10">
         <f>IF(Q8=1,'Ark1'!C8+'Ark1'!L11,'Ark1'!L11)</f>
-        <v>30.340825286280769</v>
+        <v>-3.76</v>
       </c>
       <c r="I10">
         <v>-100</v>
@@ -2743,10 +3909,10 @@
         <v>-100</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2774,7 +3940,7 @@
       </c>
       <c r="H11">
         <f>IF(Q8=1,'Ark1'!C8+'Ark1'!L12,'Ark1'!L12)</f>
-        <v>26.080825286280767</v>
+        <v>-8.02</v>
       </c>
       <c r="I11">
         <v>-100</v>
@@ -2807,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2866,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2927,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -2985,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -3044,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -3101,65 +4267,102 @@
       <c r="Q16">
         <v>1</v>
       </c>
-      <c r="R16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="R17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="18:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="R18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="18:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="R19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="18:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="R20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="18:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="R21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="18:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="R22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="18:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="R23">
-        <v>10</v>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R4:R23 B2:P16">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+  <conditionalFormatting sqref="B2:P16 R3:R15 J18:J32">
+    <cfRule type="cellIs" dxfId="173" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:P16">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:P16 R3:R15 J18:J32">
+    <cfRule type="cellIs" dxfId="169" priority="1" operator="greaterThan">
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="2" operator="equal">
       <formula>-50</formula>
     </cfRule>
   </conditionalFormatting>
